--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D322168-454F-434C-92A7-1A32E9C0567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C607FFA-E83F-43BB-9AFB-DD1CCD597C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="13">
   <si>
     <t>対戦日</t>
   </si>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>名前</t>
-  </si>
-  <si>
-    <t>森岡 凜太郎</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>吉谷悠</t>
@@ -58,15 +54,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここまで初期データ</t>
-    <rPh sb="4" eb="6">
-      <t>ショキ</t>
-    </rPh>
+    <t>石井山拓登</t>
+  </si>
+  <si>
+    <t>石井山拓登</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>石井山 拓登</t>
-    <phoneticPr fontId="1"/>
+    <t>吉谷悠</t>
+  </si>
+  <si>
+    <t>森岡凜太郎</t>
   </si>
 </sst>
 </file>
@@ -494,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -520,10 +518,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -531,10 +529,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -542,10 +540,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -553,10 +551,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -564,10 +562,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -575,10 +573,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -586,10 +584,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -597,10 +595,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -608,10 +606,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -619,10 +617,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -630,10 +628,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -641,10 +639,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -652,10 +650,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -663,10 +661,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -674,10 +672,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -685,10 +683,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -696,10 +694,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -707,10 +705,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -718,10 +716,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -729,10 +727,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -740,10 +738,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,10 +749,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -762,10 +760,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -773,10 +771,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -784,10 +782,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -795,10 +793,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,10 +804,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,10 +815,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,10 +826,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -839,10 +837,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,10 +848,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -861,24 +859,22 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>45995.12777777778</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -886,10 +882,10 @@
         <v>45996.041666666664</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -897,10 +893,10 @@
         <v>45996.041666666664</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -908,10 +904,10 @@
         <v>45996.041666666664</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -919,10 +915,10 @@
         <v>45997</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -930,10 +926,10 @@
         <v>45997</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -941,10 +937,10 @@
         <v>45997</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -952,10 +948,10 @@
         <v>46000</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,10 +959,10 @@
         <v>46000</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -974,10 +970,10 @@
         <v>46000</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -985,17 +981,17 @@
         <v>46000</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 B33:C33 B32:C32 B31:C31 B2:C2 B3:C3 B4:C4 B5:C5 B6:C6 B7:C7 B8:C8 B9:C9 B10:C10 B11:C11 B12:C12 B13:C13 B14:C14 B15:C15 B16:C16 B17:C17 B18:C18 B19:C19 B20:C20 B21:C21 B22:C22 B23:C23 B24:C24 B25:C25 B26:C26 B27:C27 B28:C28 B29:C29 B30:C30" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C607FFA-E83F-43BB-9AFB-DD1CCD597C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357F7724-9268-449D-BC4F-DBD0FA104465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="13">
   <si>
     <t>対戦日</t>
   </si>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -151,6 +151,8 @@
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -490,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -985,6 +987,83 @@
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357F7724-9268-449D-BC4F-DBD0FA104465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA362F7C-C8B3-47E3-BC78-D8CC0BD72867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="14">
   <si>
     <t>対戦日</t>
   </si>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>森岡凜太郎</t>
+  </si>
+  <si>
+    <t>森岡凜太郎</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -96,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -153,6 +163,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -516,7 +528,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>45995.044548611113</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -880,7 +892,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="10">
         <v>45996.041666666664</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -913,7 +925,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="10">
         <v>45997</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -946,7 +958,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="10">
         <v>46000</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -990,7 +1002,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="9">
         <v>46006</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1045,7 +1057,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="9">
         <v>46008</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1059,11 +1071,22 @@
       <c r="A51" s="7">
         <v>46008</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>8</v>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA362F7C-C8B3-47E3-BC78-D8CC0BD72867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052BF995-BF6E-4318-8374-2BF9505FE160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="14">
   <si>
     <t>対戦日</t>
   </si>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -162,7 +162,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -504,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -528,7 +527,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>45995.044548611113</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -892,7 +891,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>45996.041666666664</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -925,7 +924,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>45997</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -958,7 +957,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>46000</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1002,7 +1001,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>46006</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1057,7 +1056,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>46008</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1082,11 +1081,44 @@
       <c r="A52" s="7">
         <v>46008</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052BF995-BF6E-4318-8374-2BF9505FE160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7319EE3-FEB0-4B40-8A57-940E029877FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="14">
   <si>
     <t>対戦日</t>
   </si>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -1104,7 +1104,7 @@
         <v>46008</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
@@ -1119,6 +1119,72 @@
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>46010</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7319EE3-FEB0-4B40-8A57-940E029877FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A7F62F-1580-49C6-9427-8175011BF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="対戦履歴" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="13">
   <si>
     <t>対戦日</t>
   </si>
@@ -30,15 +30,6 @@
   </si>
   <si>
     <t>敗者</t>
-  </si>
-  <si>
-    <t>吉谷 悠</t>
-  </si>
-  <si>
-    <t>石井山 拓登</t>
-  </si>
-  <si>
-    <t>森岡 凜太郎</t>
   </si>
   <si>
     <t>ID</t>
@@ -68,6 +59,20 @@
   </si>
   <si>
     <t>森岡凜太郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉谷悠</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシタニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉谷悠</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -153,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -164,6 +169,7 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -531,10 +537,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -542,10 +548,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -553,10 +559,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -564,10 +570,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -575,10 +581,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -586,10 +592,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -597,10 +603,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -608,10 +614,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -619,10 +625,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -630,10 +636,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -641,10 +647,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -652,10 +658,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -663,10 +669,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -674,10 +680,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -685,10 +691,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -696,10 +702,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -707,10 +713,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -718,10 +724,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -729,10 +735,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -740,10 +746,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,10 +757,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -762,10 +768,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -773,10 +779,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -784,10 +790,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -795,10 +801,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,10 +812,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,10 +823,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,10 +834,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -839,10 +845,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,10 +856,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -861,10 +867,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -872,10 +878,10 @@
         <v>45995.044548611113</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33" s="6"/>
     </row>
@@ -884,10 +890,10 @@
         <v>45995.12777777778</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -895,10 +901,10 @@
         <v>45996.041666666664</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -906,10 +912,10 @@
         <v>45996.041666666664</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -917,10 +923,10 @@
         <v>45996.041666666664</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -928,10 +934,10 @@
         <v>45997</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -939,10 +945,10 @@
         <v>45997</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -950,10 +956,10 @@
         <v>45997</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -961,10 +967,10 @@
         <v>46000</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -972,10 +978,10 @@
         <v>46000</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -983,10 +989,10 @@
         <v>46000</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -994,10 +1000,10 @@
         <v>46000</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1005,10 +1011,10 @@
         <v>46006</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1016,10 +1022,10 @@
         <v>46006</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1027,10 +1033,10 @@
         <v>46006</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1038,10 +1044,10 @@
         <v>46006</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1049,10 +1055,10 @@
         <v>46006</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1060,10 +1066,10 @@
         <v>46008</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1071,10 +1077,10 @@
         <v>46008</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1082,10 +1088,10 @@
         <v>46008</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1093,10 +1099,10 @@
         <v>46008</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1104,10 +1110,10 @@
         <v>46008</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1115,10 +1121,10 @@
         <v>46008</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1126,10 +1132,10 @@
         <v>46010</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1137,10 +1143,10 @@
         <v>46010</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1148,10 +1154,10 @@
         <v>46010</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1159,10 +1165,10 @@
         <v>46010</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1170,10 +1176,10 @@
         <v>46010</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1181,10 +1187,54 @@
         <v>46010</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
+        <v>46013</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>46014</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>46014</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>46014</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1200,16 +1250,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1217,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1225,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1233,14 +1285,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 A4 A2 A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A7F62F-1580-49C6-9427-8175011BF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658852CE-6AD0-4F81-B19B-4D05BDD4B0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="対戦履歴" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="13">
   <si>
     <t>対戦日</t>
   </si>
@@ -114,12 +114,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -127,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,17 +158,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -522,719 +523,763 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="8">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="A15" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="A19" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="A20" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="A21" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="A25" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="A26" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="A27" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="A28" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="A29" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="A30" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="A31" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="A32" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="6"/>
+      <c r="A33" s="2">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>45995.12777777778</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>45996.041666666664</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>45996.041666666664</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>45996.041666666664</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>45997</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>45997</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>45997</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>46000</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>46000</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>46000</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>46000</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>46006</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>46006</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>46006</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>46006</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>46006</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>46008</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>46008</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>46008</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>46008</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>46008</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>46008</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>46010</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>46010</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>46010</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>46010</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>46010</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>46010</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>46013</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+      <c r="A63" s="7">
         <v>46014</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>46014</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="10" t="s">
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>46014</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>46014</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>46014</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>46015</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>46015</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1250,41 +1295,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658852CE-6AD0-4F81-B19B-4D05BDD4B0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5FF594-B174-4BD7-B433-897E58373EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="13">
   <si>
     <t>対戦日</t>
   </si>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -170,6 +170,7 @@
     <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -510,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -1242,10 +1243,10 @@
       <c r="A66" s="6">
         <v>46014</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="11" t="s">
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1253,10 +1254,10 @@
       <c r="A67" s="6">
         <v>46014</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1264,10 +1265,10 @@
       <c r="A68" s="7">
         <v>46015</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1275,12 +1276,125 @@
       <c r="A69" s="6">
         <v>46015</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>46020</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>46020</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>46020</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>46020</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>46020</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>46020</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>46020</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>46020</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>46020</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>46020</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5FF594-B174-4BD7-B433-897E58373EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0B8378-1404-49F5-87D1-3BB0EF18E9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="13">
   <si>
     <t>対戦日</t>
   </si>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -170,7 +170,6 @@
     <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -511,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1286,7 @@
       <c r="A70" s="6">
         <v>46020</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1298,7 +1297,7 @@
       <c r="A71" s="6">
         <v>46020</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1309,7 +1308,7 @@
       <c r="A72" s="6">
         <v>46020</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -1320,7 +1319,7 @@
       <c r="A73" s="6">
         <v>46020</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1331,7 +1330,7 @@
       <c r="A74" s="6">
         <v>46020</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1342,7 +1341,7 @@
       <c r="A75" s="6">
         <v>46020</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -1353,7 +1352,7 @@
       <c r="A76" s="6">
         <v>46020</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -1364,7 +1363,7 @@
       <c r="A77" s="6">
         <v>46020</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -1375,7 +1374,7 @@
       <c r="A78" s="6">
         <v>46020</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -1386,7 +1385,7 @@
       <c r="A79" s="6">
         <v>46020</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -1394,7 +1393,26 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
+      <c r="A80" s="7">
+        <v>46036</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>46036</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0B8378-1404-49F5-87D1-3BB0EF18E9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEAB3F3-950C-4E0E-B91E-FEFDF1D7728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="13">
   <si>
     <t>対戦日</t>
   </si>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -1396,10 +1396,10 @@
       <c r="A80" s="7">
         <v>46036</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="11" t="s">
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1407,11 +1407,44 @@
       <c r="A81" s="6">
         <v>46036</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>7</v>
+      <c r="B81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>46036</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>46036</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>46036</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEAB3F3-950C-4E0E-B91E-FEFDF1D7728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF88818-F832-47D8-8FB0-8FE69E817A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="13">
   <si>
     <t>対戦日</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +103,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -161,16 +176,32 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -510,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -523,928 +554,983 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="5">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="A18" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="A20" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="A21" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="A22" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="A26" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="A27" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="A28" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="A29" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="A32" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>45995.044548611113</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="5"/>
+      <c r="A33" s="7">
+        <v>45995.044548611113</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="8">
         <v>45995.12777777778</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="A35" s="5">
         <v>45996.041666666664</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="7">
         <v>45996.041666666664</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37" s="7">
         <v>45996.041666666664</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+      <c r="A38" s="5">
         <v>45997</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39" s="7">
         <v>45997</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="7">
         <v>45997</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+      <c r="A41" s="5">
         <v>46000</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42" s="7">
         <v>46000</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="A43" s="7">
         <v>46000</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="7">
         <v>46000</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="10">
         <v>46006</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="11">
         <v>46006</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="11">
         <v>46006</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="11">
         <v>46006</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="11">
         <v>46006</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="10">
         <v>46008</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="11">
         <v>46008</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="11">
         <v>46008</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="11">
         <v>46008</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="11">
         <v>46008</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="11">
         <v>46008</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="10">
         <v>46010</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="11">
         <v>46010</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="11">
         <v>46010</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="11">
         <v>46010</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="11">
         <v>46010</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="11">
         <v>46010</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="10">
         <v>46013</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="A63" s="10">
         <v>46014</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="11">
         <v>46014</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="A65" s="11">
         <v>46014</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="11">
         <v>46014</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67" s="11">
         <v>46014</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
+      <c r="A68" s="10">
         <v>46015</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="A69" s="11">
         <v>46015</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="A70" s="11">
         <v>46020</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="A71" s="11">
         <v>46020</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="A72" s="11">
         <v>46020</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73" s="11">
         <v>46020</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="11">
         <v>46020</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="A75" s="11">
         <v>46020</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76" s="11">
         <v>46020</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="A77" s="11">
         <v>46020</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78" s="11">
         <v>46020</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+      <c r="A79" s="11">
         <v>46020</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
+      <c r="A80" s="10">
         <v>46036</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+      <c r="A81" s="11">
         <v>46036</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82" s="11">
         <v>46036</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="B82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+      <c r="A83" s="11">
         <v>46036</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+      <c r="A84" s="11">
         <v>46036</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>5</v>
+      <c r="B84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="10">
+        <v>46039</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="11">
+        <v>46039</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="10">
+        <v>46040</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="11">
+        <v>46040</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
+        <v>46040</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +1557,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF88818-F832-47D8-8FB0-8FE69E817A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{228C38C9-21EF-D147-936E-8C5EA6D6D1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="対戦履歴" sheetId="1" r:id="rId1"/>
     <sheet name="参加者リスト" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="13">
   <si>
     <t>対戦日</t>
   </si>
@@ -80,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,6 +132,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HGMaruGothicMPRO"/>
+      <family val="34"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HGMaruGothicMPRO"/>
+      <family val="34"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -146,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,38 +197,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,19 +615,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.1"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" customWidth="1"/>
-    <col min="2" max="3" width="15.69921875" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="3" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -564,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A2" s="5">
         <v>45995.044548611113</v>
       </c>
@@ -575,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A3" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -586,7 +660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A4" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -597,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A5" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -608,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A6" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -619,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A7" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -630,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A8" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -641,7 +715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A9" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -652,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A10" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -663,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A11" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -674,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A12" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -685,7 +759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A13" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -696,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A14" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -707,7 +781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A15" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -718,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A16" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -729,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A17" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -740,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A18" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -751,7 +825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A19" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -762,7 +836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A20" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -773,7 +847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A21" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -784,7 +858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A22" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -795,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A23" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -806,7 +880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A24" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -817,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A25" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -828,7 +902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A26" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -839,7 +913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A27" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -850,7 +924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A28" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -861,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A29" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -872,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A30" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -883,7 +957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A31" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -894,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A32" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -905,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A33" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -917,7 +991,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A34" s="8">
         <v>45995.12777777778</v>
       </c>
@@ -928,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A35" s="5">
         <v>45996.041666666664</v>
       </c>
@@ -939,7 +1013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A36" s="7">
         <v>45996.041666666664</v>
       </c>
@@ -950,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A37" s="7">
         <v>45996.041666666664</v>
       </c>
@@ -961,7 +1035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A38" s="5">
         <v>45997</v>
       </c>
@@ -972,7 +1046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A39" s="7">
         <v>45997</v>
       </c>
@@ -983,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A40" s="7">
         <v>45997</v>
       </c>
@@ -994,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A41" s="5">
         <v>46000</v>
       </c>
@@ -1005,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A42" s="7">
         <v>46000</v>
       </c>
@@ -1016,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A43" s="7">
         <v>46000</v>
       </c>
@@ -1027,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A44" s="7">
         <v>46000</v>
       </c>
@@ -1038,7 +1112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A45" s="10">
         <v>46006</v>
       </c>
@@ -1049,7 +1123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A46" s="11">
         <v>46006</v>
       </c>
@@ -1060,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A47" s="11">
         <v>46006</v>
       </c>
@@ -1071,7 +1145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.1">
       <c r="A48" s="11">
         <v>46006</v>
       </c>
@@ -1082,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A49" s="11">
         <v>46006</v>
       </c>
@@ -1093,7 +1167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A50" s="10">
         <v>46008</v>
       </c>
@@ -1104,7 +1178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A51" s="11">
         <v>46008</v>
       </c>
@@ -1115,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A52" s="11">
         <v>46008</v>
       </c>
@@ -1126,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A53" s="11">
         <v>46008</v>
       </c>
@@ -1137,7 +1211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A54" s="11">
         <v>46008</v>
       </c>
@@ -1148,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A55" s="11">
         <v>46008</v>
       </c>
@@ -1159,7 +1233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A56" s="10">
         <v>46010</v>
       </c>
@@ -1170,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A57" s="11">
         <v>46010</v>
       </c>
@@ -1181,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A58" s="11">
         <v>46010</v>
       </c>
@@ -1192,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A59" s="11">
         <v>46010</v>
       </c>
@@ -1203,7 +1277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A60" s="11">
         <v>46010</v>
       </c>
@@ -1214,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A61" s="11">
         <v>46010</v>
       </c>
@@ -1225,7 +1299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A62" s="10">
         <v>46013</v>
       </c>
@@ -1236,7 +1310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A63" s="10">
         <v>46014</v>
       </c>
@@ -1247,7 +1321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A64" s="11">
         <v>46014</v>
       </c>
@@ -1258,7 +1332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A65" s="11">
         <v>46014</v>
       </c>
@@ -1269,7 +1343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A66" s="11">
         <v>46014</v>
       </c>
@@ -1280,7 +1354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A67" s="11">
         <v>46014</v>
       </c>
@@ -1291,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A68" s="10">
         <v>46015</v>
       </c>
@@ -1302,7 +1376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A69" s="11">
         <v>46015</v>
       </c>
@@ -1313,7 +1387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A70" s="11">
         <v>46020</v>
       </c>
@@ -1324,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A71" s="11">
         <v>46020</v>
       </c>
@@ -1335,7 +1409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A72" s="11">
         <v>46020</v>
       </c>
@@ -1346,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A73" s="11">
         <v>46020</v>
       </c>
@@ -1357,7 +1431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A74" s="11">
         <v>46020</v>
       </c>
@@ -1368,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A75" s="11">
         <v>46020</v>
       </c>
@@ -1379,7 +1453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A76" s="11">
         <v>46020</v>
       </c>
@@ -1390,7 +1464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A77" s="11">
         <v>46020</v>
       </c>
@@ -1401,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A78" s="11">
         <v>46020</v>
       </c>
@@ -1412,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A79" s="11">
         <v>46020</v>
       </c>
@@ -1423,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A80" s="10">
         <v>46036</v>
       </c>
@@ -1434,7 +1508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A81" s="11">
         <v>46036</v>
       </c>
@@ -1445,7 +1519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A82" s="11">
         <v>46036</v>
       </c>
@@ -1456,7 +1530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A83" s="11">
         <v>46036</v>
       </c>
@@ -1467,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A84" s="11">
         <v>46036</v>
       </c>
@@ -1478,7 +1552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A85" s="10">
         <v>46039</v>
       </c>
@@ -1489,7 +1563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A86" s="11">
         <v>46039</v>
       </c>
@@ -1500,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A87" s="10">
         <v>46040</v>
       </c>
@@ -1511,7 +1585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.1">
       <c r="A88" s="11">
         <v>46040</v>
       </c>
@@ -1522,16 +1596,109 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="11">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A89" s="15">
         <v>46040</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B89" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A90" s="17">
+        <v>46042</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A91" s="13">
+        <v>46042</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A92" s="13">
+        <v>46042</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.1">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1550,13 +1717,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.1"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.1">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,7 +1731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1572,7 +1739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1580,7 +1747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.1">
       <c r="A4" s="1">
         <v>2</v>
       </c>

--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{228C38C9-21EF-D147-936E-8C5EA6D6D1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6ADC74-858A-4C60-87B2-17BB3F0F1774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="13">
   <si>
     <t>対戦日</t>
   </si>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,21 +132,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="HGMaruGothicMPRO"/>
-      <family val="34"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="HGMaruGothicMPRO"/>
-      <family val="34"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -174,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,39 +182,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF505050"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF505050"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF505050"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF505050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -256,24 +213,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,19 +554,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="3" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="20.69921875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.69921875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -638,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>45995.044548611113</v>
       </c>
@@ -649,7 +588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -660,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -671,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -682,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -693,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -704,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -715,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -726,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -737,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -748,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -759,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -770,7 +709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -781,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -792,7 +731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -803,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -814,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -825,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -836,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -847,7 +786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -858,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -869,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -880,7 +819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -891,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -902,7 +841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -913,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -924,7 +863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -935,7 +874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -946,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -957,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -968,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -979,7 +918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>45995.044548611113</v>
       </c>
@@ -991,7 +930,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>45995.12777777778</v>
       </c>
@@ -1002,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>45996.041666666664</v>
       </c>
@@ -1013,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>45996.041666666664</v>
       </c>
@@ -1024,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>45996.041666666664</v>
       </c>
@@ -1035,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>45997</v>
       </c>
@@ -1046,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>45997</v>
       </c>
@@ -1057,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>45997</v>
       </c>
@@ -1068,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>46000</v>
       </c>
@@ -1079,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>46000</v>
       </c>
@@ -1090,7 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>46000</v>
       </c>
@@ -1101,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>46000</v>
       </c>
@@ -1112,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>46006</v>
       </c>
@@ -1123,7 +1062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>46006</v>
       </c>
@@ -1134,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>46006</v>
       </c>
@@ -1145,7 +1084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.1">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>46006</v>
       </c>
@@ -1156,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>46006</v>
       </c>
@@ -1167,7 +1106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>46008</v>
       </c>
@@ -1178,7 +1117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>46008</v>
       </c>
@@ -1189,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>46008</v>
       </c>
@@ -1200,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>46008</v>
       </c>
@@ -1211,7 +1150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>46008</v>
       </c>
@@ -1222,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>46008</v>
       </c>
@@ -1233,7 +1172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>46010</v>
       </c>
@@ -1244,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>46010</v>
       </c>
@@ -1255,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>46010</v>
       </c>
@@ -1266,7 +1205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>46010</v>
       </c>
@@ -1277,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>46010</v>
       </c>
@@ -1288,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>46010</v>
       </c>
@@ -1299,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>46013</v>
       </c>
@@ -1310,7 +1249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>46014</v>
       </c>
@@ -1321,7 +1260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>46014</v>
       </c>
@@ -1332,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>46014</v>
       </c>
@@ -1343,7 +1282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>46014</v>
       </c>
@@ -1354,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>46014</v>
       </c>
@@ -1365,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>46015</v>
       </c>
@@ -1376,7 +1315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>46015</v>
       </c>
@@ -1387,7 +1326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>46020</v>
       </c>
@@ -1398,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>46020</v>
       </c>
@@ -1409,7 +1348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>46020</v>
       </c>
@@ -1420,7 +1359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>46020</v>
       </c>
@@ -1431,7 +1370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>46020</v>
       </c>
@@ -1442,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>46020</v>
       </c>
@@ -1453,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>46020</v>
       </c>
@@ -1464,7 +1403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>46020</v>
       </c>
@@ -1475,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>46020</v>
       </c>
@@ -1486,7 +1425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>46020</v>
       </c>
@@ -1497,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>46036</v>
       </c>
@@ -1508,7 +1447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>46036</v>
       </c>
@@ -1519,7 +1458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>46036</v>
       </c>
@@ -1530,7 +1469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>46036</v>
       </c>
@@ -1541,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>46036</v>
       </c>
@@ -1552,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>46039</v>
       </c>
@@ -1563,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>46039</v>
       </c>
@@ -1574,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>46040</v>
       </c>
@@ -1585,7 +1524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>46040</v>
       </c>
@@ -1596,109 +1535,82 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A89" s="15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
         <v>46040</v>
       </c>
-      <c r="B89" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A90" s="17">
+      <c r="B89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="10">
         <v>46042</v>
       </c>
-      <c r="B90" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A91" s="13">
+      <c r="B90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="11">
         <v>46042</v>
       </c>
-      <c r="B91" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A92" s="13">
+      <c r="B91" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="11">
         <v>46042</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.1">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
+      <c r="B92" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="11">
+        <v>46042</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="11">
+        <v>46042</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="11">
+        <v>46042</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1717,13 +1629,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1731,7 +1643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1739,7 +1651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1747,7 +1659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
